--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201124_E-Control.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201124_E-Control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\03.BaoGiaBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\03.BaoGiaBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>ĐC: Tòa nhà Sơn Hà, số 2 phố Thanh Lâm, phường Minh Khai, quận Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Khách báo không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -667,6 +670,60 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,60 +750,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1105,7 +1108,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1133,28 +1136,28 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -1199,12 +1202,12 @@
       <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
@@ -1216,13 +1219,13 @@
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1230,10 +1233,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="25"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1244,13 +1247,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1258,10 +1261,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1273,10 +1276,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1353,17 +1356,17 @@
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="30">
         <f>SUM(J13:J13)</f>
         <v>360000</v>
@@ -1385,10 +1388,12 @@
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1397,31 +1402,31 @@
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="24"/>
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -1448,20 +1453,20 @@
       <c r="AA22" s="15"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1533,17 +1538,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1552,6 +1546,17 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
